--- a/Fichiers modifiables/ListeStocks.xlsx
+++ b/Fichiers modifiables/ListeStocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -612,6 +612,162 @@
   </si>
   <si>
     <t>entretien</t>
+  </si>
+  <si>
+    <t>sectors_id</t>
+  </si>
+  <si>
+    <t>029327 6614</t>
+  </si>
+  <si>
+    <t>394197 2055</t>
+  </si>
+  <si>
+    <t>002261 1560</t>
+  </si>
+  <si>
+    <t>606534 5594</t>
+  </si>
+  <si>
+    <t>005221 3741</t>
+  </si>
+  <si>
+    <t>078581 9863</t>
+  </si>
+  <si>
+    <t>472733 2001</t>
+  </si>
+  <si>
+    <t>985117 8930</t>
+  </si>
+  <si>
+    <t>416501 6736</t>
+  </si>
+  <si>
+    <t>478644 7179</t>
+  </si>
+  <si>
+    <t>396629 7404</t>
+  </si>
+  <si>
+    <t>642898 6662</t>
+  </si>
+  <si>
+    <t>228259 2886</t>
+  </si>
+  <si>
+    <t>074846 0540</t>
+  </si>
+  <si>
+    <t>329324 4715</t>
+  </si>
+  <si>
+    <t>208960 3431</t>
+  </si>
+  <si>
+    <t>627710 4672</t>
+  </si>
+  <si>
+    <t>159145 3525</t>
+  </si>
+  <si>
+    <t>923383 6577</t>
+  </si>
+  <si>
+    <t>457040 7983</t>
+  </si>
+  <si>
+    <t>693972 6888</t>
+  </si>
+  <si>
+    <t>337295 4788</t>
+  </si>
+  <si>
+    <t>078516 0250</t>
+  </si>
+  <si>
+    <t>229420 3670</t>
+  </si>
+  <si>
+    <t>304798 5191</t>
+  </si>
+  <si>
+    <t>Brouteurs</t>
+  </si>
+  <si>
+    <t>Cu-controlled</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Récompenses herbivores</t>
+  </si>
+  <si>
+    <t>Récompenses herbivores minéralisées</t>
+  </si>
+  <si>
+    <t>Eléphants</t>
+  </si>
+  <si>
+    <t>Rhinocéros et tapir</t>
+  </si>
+  <si>
+    <t>Aliment spécial herbivore</t>
+  </si>
+  <si>
+    <t>Granulés pour ours</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Complément pour carnivores</t>
+  </si>
+  <si>
+    <t>Primates extrudé</t>
+  </si>
+  <si>
+    <t>Primates phyllophages</t>
+  </si>
+  <si>
+    <t>Callithrichidae</t>
+  </si>
+  <si>
+    <t>Gomme arabique</t>
+  </si>
+  <si>
+    <t>Gomma arabique naturelle</t>
+  </si>
+  <si>
+    <t>Haute teneur en fibres</t>
+  </si>
+  <si>
+    <t>Aliment parc à gibier</t>
+  </si>
+  <si>
+    <t>Insectivores</t>
+  </si>
+  <si>
+    <t>Insectivores avec farine d’insectes</t>
+  </si>
+  <si>
+    <t>Aliment pour grillons</t>
+  </si>
+  <si>
+    <t>Souris hamsters rats gerbilles</t>
+  </si>
+  <si>
+    <t>Inde entretien</t>
+  </si>
+  <si>
+    <t>Inde élevage</t>
+  </si>
+  <si>
+    <t>Minipigs</t>
+  </si>
+  <si>
+    <t>granovit</t>
   </si>
 </sst>
 </file>
@@ -929,18 +1085,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,8 +1121,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>69</v>
       </c>
@@ -982,8 +1144,11 @@
       <c r="G2">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -1002,8 +1167,11 @@
       <c r="G3">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1022,8 +1190,11 @@
       <c r="G4">
         <v>1176</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -1042,8 +1213,11 @@
       <c r="G5">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1062,8 +1236,11 @@
       <c r="G6">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -1082,8 +1259,11 @@
       <c r="G7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -1102,8 +1282,11 @@
       <c r="G8">
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>76</v>
       </c>
@@ -1122,8 +1305,11 @@
       <c r="G9">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>77</v>
       </c>
@@ -1142,8 +1328,11 @@
       <c r="G10">
         <v>296</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -1162,8 +1351,11 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>79</v>
       </c>
@@ -1182,8 +1374,11 @@
       <c r="G12">
         <v>303</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1202,8 +1397,11 @@
       <c r="G13">
         <v>307</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>81</v>
       </c>
@@ -1222,8 +1420,11 @@
       <c r="G14">
         <v>279</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>82</v>
       </c>
@@ -1242,8 +1443,11 @@
       <c r="G15">
         <v>363</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>83</v>
       </c>
@@ -1262,8 +1466,11 @@
       <c r="G16">
         <v>467</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1282,8 +1489,11 @@
       <c r="G17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -1302,8 +1512,11 @@
       <c r="G18">
         <v>265</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -1322,8 +1535,11 @@
       <c r="G19">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -1342,8 +1558,11 @@
       <c r="G20">
         <v>487</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>88</v>
       </c>
@@ -1362,8 +1581,11 @@
       <c r="G21">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -1382,8 +1604,11 @@
       <c r="G22">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>90</v>
       </c>
@@ -1402,8 +1627,11 @@
       <c r="G23">
         <v>1163</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -1422,8 +1650,11 @@
       <c r="G24">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>92</v>
       </c>
@@ -1442,8 +1673,11 @@
       <c r="G25">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>93</v>
       </c>
@@ -1462,8 +1696,11 @@
       <c r="G26">
         <v>362</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>94</v>
       </c>
@@ -1482,8 +1719,11 @@
       <c r="G27">
         <v>287</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>95</v>
       </c>
@@ -1502,8 +1742,11 @@
       <c r="G28">
         <v>463</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>96</v>
       </c>
@@ -1522,8 +1765,11 @@
       <c r="G29">
         <v>1111</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>97</v>
       </c>
@@ -1542,8 +1788,11 @@
       <c r="G30">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>98</v>
       </c>
@@ -1562,8 +1811,11 @@
       <c r="G31">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>99</v>
       </c>
@@ -1582,8 +1834,11 @@
       <c r="G32">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>100</v>
       </c>
@@ -1602,8 +1857,11 @@
       <c r="G33">
         <v>276</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>101</v>
       </c>
@@ -1622,8 +1880,11 @@
       <c r="G34">
         <v>310</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>102</v>
       </c>
@@ -1642,8 +1903,11 @@
       <c r="G35">
         <v>383</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>103</v>
       </c>
@@ -1662,8 +1926,11 @@
       <c r="G36">
         <v>1430</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>104</v>
       </c>
@@ -1682,8 +1949,11 @@
       <c r="G37">
         <v>275</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>105</v>
       </c>
@@ -1702,8 +1972,11 @@
       <c r="G38">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>106</v>
       </c>
@@ -1722,8 +1995,11 @@
       <c r="G39">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>107</v>
       </c>
@@ -1742,8 +2018,11 @@
       <c r="G40">
         <v>292</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>108</v>
       </c>
@@ -1762,8 +2041,11 @@
       <c r="G41">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>109</v>
       </c>
@@ -1782,8 +2064,11 @@
       <c r="G42">
         <v>335</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>110</v>
       </c>
@@ -1802,8 +2087,11 @@
       <c r="G43">
         <v>426</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>111</v>
       </c>
@@ -1822,8 +2110,11 @@
       <c r="G44">
         <v>428</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>112</v>
       </c>
@@ -1842,8 +2133,11 @@
       <c r="G45">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>113</v>
       </c>
@@ -1862,8 +2156,11 @@
       <c r="G46">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>114</v>
       </c>
@@ -1882,8 +2179,11 @@
       <c r="G47">
         <v>411</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>115</v>
       </c>
@@ -1902,8 +2202,11 @@
       <c r="G48">
         <v>437</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>116</v>
       </c>
@@ -1922,8 +2225,11 @@
       <c r="G49">
         <v>361</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>117</v>
       </c>
@@ -1942,8 +2248,11 @@
       <c r="G50">
         <v>1398</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>118</v>
       </c>
@@ -1962,8 +2271,11 @@
       <c r="G51">
         <v>432</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>119</v>
       </c>
@@ -1982,8 +2294,11 @@
       <c r="G52">
         <v>323</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>120</v>
       </c>
@@ -2002,8 +2317,11 @@
       <c r="G53">
         <v>1135</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -2022,8 +2340,11 @@
       <c r="G54">
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -2042,8 +2363,11 @@
       <c r="G55">
         <v>312</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>123</v>
       </c>
@@ -2062,8 +2386,11 @@
       <c r="G56">
         <v>483</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>124</v>
       </c>
@@ -2082,8 +2409,11 @@
       <c r="G57">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>125</v>
       </c>
@@ -2102,8 +2432,11 @@
       <c r="G58">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>126</v>
       </c>
@@ -2122,8 +2455,11 @@
       <c r="G59">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>127</v>
       </c>
@@ -2142,8 +2478,11 @@
       <c r="G60">
         <v>248</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>128</v>
       </c>
@@ -2162,8 +2501,11 @@
       <c r="G61">
         <v>258</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>129</v>
       </c>
@@ -2182,8 +2524,11 @@
       <c r="G62">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>130</v>
       </c>
@@ -2201,6 +2546,584 @@
       </c>
       <c r="G63">
         <v>150</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64">
+        <v>275</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65">
+        <v>152</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66">
+        <v>112</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67">
+        <v>292</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68">
+        <v>116</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69">
+        <v>335</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70">
+        <v>426</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71">
+        <v>428</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>194</v>
+      </c>
+      <c r="G72">
+        <v>300</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73">
+        <v>246</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74">
+        <v>411</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75">
+        <v>437</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76">
+        <v>361</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77">
+        <v>1398</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78">
+        <v>432</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79">
+        <v>323</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80">
+        <v>1135</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81">
+        <v>126</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82">
+        <v>312</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83">
+        <v>483</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>194</v>
+      </c>
+      <c r="G84">
+        <v>109</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85">
+        <v>159</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>194</v>
+      </c>
+      <c r="G86">
+        <v>77</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87">
+        <v>248</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>194</v>
+      </c>
+      <c r="G88">
+        <v>258</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Fichiers modifiables/ListeStocks.xlsx
+++ b/Fichiers modifiables/ListeStocks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola.costa\Documents\GitHub\Ma-08_Zoo\Fichiers modifiables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Trimestre 6\MA 08 - Serveur BD\Ma-08_Zoo\Fichiers modifiables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
